--- a/0.PM/ProductBacklog.xlsx
+++ b/0.PM/ProductBacklog.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A67AA2-1450-46A4-9168-E5B63A3CFD34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE187F4-6132-45B4-AE99-E916729E8C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>TT</t>
   </si>
@@ -129,10 +132,30 @@
     <t>Phải cho phép người dùng chọn theo cả tên khi nhập hàng hóa</t>
   </si>
   <si>
-    <t>In barcode</t>
-  </si>
-  <si>
-    <t>Bổ sung chức năng cho phép in barcode để dán vào hàng hóa khi nhập kho</t>
+    <t>Vị trí</t>
+  </si>
+  <si>
+    <t>Có thông tin kích thước và trọng lượng có thể lưu trữ.
+Cho phép cấu hình 1 vị trí chỉ lưu 1 mã hàng.</t>
+  </si>
+  <si>
+    <t>Báo cáo ra được thông tin những vị trí có hàng, những vị trí không có hàng
+Tình trạng lưu trữ các vị trí: Trống, Còn lưu được bao nhiêu (Kg), Full</t>
+  </si>
+  <si>
+    <t>Báo cáo vị trí (Tổng hợp/Chi tiết)</t>
+  </si>
+  <si>
+    <t>Thẻ kho</t>
+  </si>
+  <si>
+    <t>Cho phép tìm kiếm 1 mã hàng được xuất/nhập bao nhiêu theo thời gian</t>
+  </si>
+  <si>
+    <t>Kiểm kê</t>
+  </si>
+  <si>
+    <t>Kiểm kê mù theo vị trí (chọn kho, khu vực, vị trí) giao cho thủ kho</t>
   </si>
 </sst>
 </file>
@@ -591,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,8 +748,8 @@
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
@@ -775,8 +798,8 @@
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
+      <c r="E7" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>21</v>
@@ -834,7 +857,7 @@
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -853,12 +876,85 @@
       <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>31</v>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H10" s="5"/>
     </row>
+    <row r="11" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{CF3A0492-D862-42D0-AE0D-BBC4163E1323}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.PM/ProductBacklog.xlsx
+++ b/0.PM/ProductBacklog.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE187F4-6132-45B4-AE99-E916729E8C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E088421-96B3-4CFF-9AC1-5D419F701B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>TT</t>
   </si>
@@ -123,9 +123,6 @@
     <t>DuyOT</t>
   </si>
   <si>
-    <t>Thời gian</t>
-  </si>
-  <si>
     <t>Xuất/nhập kho</t>
   </si>
   <si>
@@ -156,6 +153,15 @@
   </si>
   <si>
     <t>Kiểm kê mù theo vị trí (chọn kho, khu vực, vị trí) giao cho thủ kho</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Thời gian hoàn thành</t>
+  </si>
+  <si>
+    <t>Karofi yêu cầu</t>
   </si>
 </sst>
 </file>
@@ -200,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -230,17 +236,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -251,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -269,13 +264,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,12 +618,14 @@
     <col min="2" max="2" width="20.26953125" customWidth="1"/>
     <col min="3" max="3" width="43.54296875" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1"/>
-    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -653,11 +647,14 @@
       <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -679,11 +676,12 @@
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <v>43299</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -705,11 +703,12 @@
       <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>43299</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -731,11 +730,12 @@
       <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>43292</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -757,97 +757,101 @@
       <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>43299</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
+      <c r="E6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>29</v>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>21</v>
@@ -856,16 +860,17 @@
         <v>28</v>
       </c>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>27</v>
@@ -880,16 +885,19 @@
         <v>28</v>
       </c>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="I10" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>27</v>
@@ -904,16 +912,19 @@
         <v>28</v>
       </c>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
@@ -928,16 +939,19 @@
         <v>28</v>
       </c>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>27</v>
@@ -952,9 +966,17 @@
         <v>28</v>
       </c>
       <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{CF3A0492-D862-42D0-AE0D-BBC4163E1323}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{4523B83D-D76E-4C78-8F60-F72F7BE3ED83}">
+      <formula1>"Đã hoàn thành, Đang thực hiện, Chưa thực hiện"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/0.PM/ProductBacklog.xlsx
+++ b/0.PM/ProductBacklog.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E088421-96B3-4CFF-9AC1-5D419F701B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF40AB9C-D096-40CC-BFBF-DCC5219323E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>TT</t>
   </si>
@@ -162,6 +162,33 @@
   </si>
   <si>
     <t>Karofi yêu cầu</t>
+  </si>
+  <si>
+    <t>Hương Công</t>
+  </si>
+  <si>
+    <t>Tạo yêu cầu xuất kho</t>
+  </si>
+  <si>
+    <t>Khi tạo yêu cầu xuất kho báo luôn số lượng tồn để biết còn báo cho khách hoặc chủ động nhập hàng mới về</t>
+  </si>
+  <si>
+    <t>Danh mục đối tác</t>
+  </si>
+  <si>
+    <t>Bổ sung thêm người phụ trách, khi tạo yêu cầu hoặc doanh thu thì ghi nhận cho người phụ trách. Có thể sửa người phụ trách tại màn hình cập nhật doanh thu</t>
+  </si>
+  <si>
+    <t>Báo cáo</t>
+  </si>
+  <si>
+    <t>Có báo cáo tổng hợp mặt hàng xuất theo tháng của từng khách hàng để nhân viên kinh doanh có cơ sở chào hàng khách</t>
+  </si>
+  <si>
+    <t>Nhắc công nợ</t>
+  </si>
+  <si>
+    <t>Cho phép cấu hình thời gian nhắc công nợ =&gt; hệ thống sẽ nhắc đến ngày thu công nợ theo cấu hình tính từ ngày phát sinh doanh thu</t>
   </si>
 </sst>
 </file>
@@ -246,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -268,6 +295,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -968,6 +999,82 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
